--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id166976_beliebteste-kategorien-im-app-store-im-dezember-2015.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id166976_beliebteste-kategorien-im-app-store-im-dezember-2015.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.bohn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Bohn\Developer\Bachelorarbeit_Repo\Quellen und Vorlagen\Excell-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41060" yWindow="-1280" windowWidth="25380" windowHeight="14640"/>
+    <workbookView minimized="1" xWindow="41055" yWindow="-1275" windowWidth="25380" windowHeight="14640" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -250,81 +250,16 @@
     <cellStyle name="Currency [0]" xfId="3"/>
     <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -364,8 +299,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Beliebteste Kategorien im App Store im Dezember 2015 in Prozent</a:t>
+              <a:rPr lang="de-DE">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Beliebteste Kategorien im App Store im </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dezember</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2015 in Prozent</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -617,10 +572,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -715,7 +667,7 @@
                   <c:v>10.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.45</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.66</c:v>
@@ -742,7 +694,7 @@
                   <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.6</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +738,7 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -810,10 +759,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -832,7 +778,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1753,37 +1699,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1799,7 +1745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1815,7 +1761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1839,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1847,7 +1793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1855,12 +1801,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1868,7 +1814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1876,7 +1822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1884,7 +1830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1906,32 +1852,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1942,7 +1888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1953,7 +1899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1964,7 +1910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1975,7 +1921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1986,7 +1932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1997,7 +1943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -2008,7 +1954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +1965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2030,7 +1976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2041,7 +1987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +1998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2063,49 +2009,49 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="9"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="95" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id166976_beliebteste-kategorien-im-app-store-im-dezember-2015.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id166976_beliebteste-kategorien-im-app-store-im-dezember-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="41055" yWindow="-1275" windowWidth="25380" windowHeight="14640" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="41055" yWindow="-1275" windowWidth="25380" windowHeight="14640" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Beliebteste Kategorien im App Store im </a:t>
+              <a:t>Weltweit beliebteste Kategorien des App Stores im </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0">
@@ -320,7 +320,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> 2015 in Prozent</a:t>
+              <a:t> 2015 </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1852,7 +1852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
